--- a/biology/Botanique/Obione/Obione.xlsx
+++ b/biology/Botanique/Obione/Obione.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les obiones Écouter sont des plantes appartenant au genre Halimione ou Atriplex selon les sources. Obione a été considéré comme un genre à part entière[1], mais il est désormais considéré comme obsolète. Les obiones sont des arbrisseaux halophytes formant des touffes compactes et fleurissant en été, donnant de petites fleurs jaunâtres. Ils colonisent les vases des prés salés.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les obiones Écouter sont des plantes appartenant au genre Halimione ou Atriplex selon les sources. Obione a été considéré comme un genre à part entière, mais il est désormais considéré comme obsolète. Les obiones sont des arbrisseaux halophytes formant des touffes compactes et fleurissant en été, donnant de petites fleurs jaunâtres. Ils colonisent les vases des prés salés.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'obione (masculin ou féminin) est comestible cru ou cuit[2]. Cru, il a un goût salé et une texture croquante.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'obione (masculin ou féminin) est comestible cru ou cuit. Cru, il a un goût salé et une texture croquante.
 </t>
         </is>
       </c>
